--- a/distributed-vision/CAMOutputs/Assembly/DisbVisionBOMVer2_1.xlsx
+++ b/distributed-vision/CAMOutputs/Assembly/DisbVisionBOMVer2_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oankarpatil/Documents/GitHub/roboracing-electrical/distributed-vision/CAMOutputs/Assembly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B0DC19-AE9D-F848-8F82-E619CFE43F65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A5B61B-8F6C-A842-B90C-11F5ED2E531E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="3580" windowWidth="24640" windowHeight="13600" xr2:uid="{7FF492D4-00CD-9D44-A5FB-A9962F9451C5}"/>
+    <workbookView xWindow="960" yWindow="1460" windowWidth="24640" windowHeight="13600" xr2:uid="{7FF492D4-00CD-9D44-A5FB-A9962F9451C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="234">
   <si>
     <t>Designator</t>
   </si>
@@ -730,6 +730,12 @@
   </si>
   <si>
     <t>SAM10376-ND</t>
+  </si>
+  <si>
+    <t>A114854-ND</t>
+  </si>
+  <si>
+    <t>CONN SKT SODIMM 200POS R/A SMD</t>
   </si>
 </sst>
 </file>
@@ -749,13 +755,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1007,13 +1013,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -1021,6 +1020,13 @@
     </dxf>
     <dxf>
       <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1071,8 +1077,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{52925157-724A-334D-874B-92D9E65ACDD6}" name="Table3" displayName="Table3" ref="A1:F68" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="A1:F68" xr:uid="{4D16F37D-0977-FB4A-834B-E23902CB2E51}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{52925157-724A-334D-874B-92D9E65ACDD6}" name="Table3" displayName="Table3" ref="A1:F69" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:F69" xr:uid="{4D16F37D-0977-FB4A-834B-E23902CB2E51}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{155C681E-6E80-2044-BAFE-B4B72FF2B3AA}" name="Value" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{EB39E6D6-EEB5-ED4C-AB40-B4722D306831}" name="Designator" dataDxfId="4"/>
@@ -1382,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FBE42D-69AB-C84E-9751-A45924F8BA89}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2679,7 +2685,7 @@
     </row>
     <row r="65" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>163</v>
+        <v>233</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>118</v>
@@ -2694,66 +2700,80 @@
         <v>1</v>
       </c>
       <c r="F65" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E66" s="9">
-        <v>2</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E67" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" s="9">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D69" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E68" s="9">
-        <v>1</v>
-      </c>
-      <c r="F68" s="4" t="s">
+      <c r="E69" s="9">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>231</v>
       </c>
     </row>
